--- a/final-outputs/Table B Individual.xlsx
+++ b/final-outputs/Table B Individual.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="223">
   <si>
     <t>country</t>
   </si>
@@ -296,7 +296,7 @@
     <t>55.0%</t>
   </si>
   <si>
-    <t>52.9%</t>
+    <t>60.2%</t>
   </si>
   <si>
     <t>53.5%</t>
@@ -305,289 +305,307 @@
     <t>35.0%</t>
   </si>
   <si>
+    <t>31.1%</t>
+  </si>
+  <si>
+    <t>55.9%</t>
+  </si>
+  <si>
+    <t>32.4%</t>
+  </si>
+  <si>
+    <t>58.4%</t>
+  </si>
+  <si>
+    <t>55.6%</t>
+  </si>
+  <si>
+    <t>47.5%</t>
+  </si>
+  <si>
+    <t>33.5%</t>
+  </si>
+  <si>
+    <t>44.4%</t>
+  </si>
+  <si>
+    <t>52.0%</t>
+  </si>
+  <si>
+    <t>50.0%</t>
+  </si>
+  <si>
+    <t>52.8%</t>
+  </si>
+  <si>
+    <t>56.1%</t>
+  </si>
+  <si>
+    <t>47.4%</t>
+  </si>
+  <si>
+    <t>38.9%</t>
+  </si>
+  <si>
+    <t>24.0%</t>
+  </si>
+  <si>
+    <t>47.2%</t>
+  </si>
+  <si>
+    <t>52.3%</t>
+  </si>
+  <si>
+    <t>33.0%</t>
+  </si>
+  <si>
+    <t>46.6%</t>
+  </si>
+  <si>
+    <t>39.9%</t>
+  </si>
+  <si>
+    <t>58.2%</t>
+  </si>
+  <si>
+    <t>61.1%</t>
+  </si>
+  <si>
+    <t>43.5%</t>
+  </si>
+  <si>
+    <t>60.1%</t>
+  </si>
+  <si>
+    <t>41.7%</t>
+  </si>
+  <si>
+    <t>45.5%</t>
+  </si>
+  <si>
+    <t>46.0%</t>
+  </si>
+  <si>
+    <t>Top Income Tax Rate Threshold (a)</t>
+  </si>
+  <si>
+    <t>2.1</t>
+  </si>
+  <si>
+    <t>23.3</t>
+  </si>
+  <si>
+    <t>1.1</t>
+  </si>
+  <si>
+    <t>4.1</t>
+  </si>
+  <si>
+    <t>7.7</t>
+  </si>
+  <si>
+    <t>0.3</t>
+  </si>
+  <si>
+    <t>1.3</t>
+  </si>
+  <si>
+    <t>0.9</t>
+  </si>
+  <si>
+    <t>1.9</t>
+  </si>
+  <si>
+    <t>14.3</t>
+  </si>
+  <si>
+    <t>5.4</t>
+  </si>
+  <si>
+    <t>11.0</t>
+  </si>
+  <si>
+    <t>0.0</t>
+  </si>
+  <si>
+    <t>1.2</t>
+  </si>
+  <si>
+    <t>1.5</t>
+  </si>
+  <si>
+    <t>4.2</t>
+  </si>
+  <si>
+    <t>2.7</t>
+  </si>
+  <si>
+    <t>8.5</t>
+  </si>
+  <si>
+    <t>11.4</t>
+  </si>
+  <si>
+    <t>5.2</t>
+  </si>
+  <si>
+    <t>0.4</t>
+  </si>
+  <si>
+    <t>3.6</t>
+  </si>
+  <si>
+    <t>28.7</t>
+  </si>
+  <si>
+    <t>1.4</t>
+  </si>
+  <si>
+    <t>1.6</t>
+  </si>
+  <si>
+    <t>15.3</t>
+  </si>
+  <si>
+    <t>3.4</t>
+  </si>
+  <si>
+    <t>4.8</t>
+  </si>
+  <si>
+    <t>2.4</t>
+  </si>
+  <si>
+    <t>3.3</t>
+  </si>
+  <si>
+    <t>3.0</t>
+  </si>
+  <si>
+    <t>3.8</t>
+  </si>
+  <si>
+    <t>9.3</t>
+  </si>
+  <si>
+    <t>Ratio of Marginal to Average Tax Wedge</t>
+  </si>
+  <si>
+    <t>1.0</t>
+  </si>
+  <si>
+    <t>1.7</t>
+  </si>
+  <si>
+    <t>Income Tax Complexity</t>
+  </si>
+  <si>
+    <t>Income Tax Complexity (Payments)</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>Income Tax Complexity (Time)</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>124</t>
+  </si>
+  <si>
+    <t>75</t>
+  </si>
+  <si>
+    <t>65</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>80</t>
+  </si>
+  <si>
+    <t>134</t>
+  </si>
+  <si>
+    <t>46</t>
+  </si>
+  <si>
+    <t>146</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>169</t>
+  </si>
+  <si>
+    <t>70</t>
+  </si>
+  <si>
+    <t>64</t>
+  </si>
+  <si>
+    <t>59</t>
+  </si>
+  <si>
+    <t>103</t>
+  </si>
+  <si>
+    <t>90</t>
+  </si>
+  <si>
+    <t>62</t>
+  </si>
+  <si>
+    <t>84</t>
+  </si>
+  <si>
+    <t>71</t>
+  </si>
+  <si>
+    <t>55</t>
+  </si>
+  <si>
+    <t>Capital Gains/Dividends</t>
+  </si>
+  <si>
+    <t>Top Marginal Capital Gains Rate (b)</t>
+  </si>
+  <si>
+    <t>24.5%</t>
+  </si>
+  <si>
+    <t>27.5%</t>
+  </si>
+  <si>
+    <t>0.0%</t>
+  </si>
+  <si>
+    <t>26.8%</t>
+  </si>
+  <si>
     <t>15.0%</t>
   </si>
   <si>
-    <t>55.9%</t>
+    <t>42.0%</t>
   </si>
   <si>
     <t>20.0%</t>
   </si>
   <si>
-    <t>51.1%</t>
-  </si>
-  <si>
-    <t>55.4%</t>
-  </si>
-  <si>
-    <t>47.5%</t>
-  </si>
-  <si>
-    <t>46.2%</t>
-  </si>
-  <si>
-    <t>48.0%</t>
-  </si>
-  <si>
-    <t>50.0%</t>
-  </si>
-  <si>
-    <t>47.2%</t>
-  </si>
-  <si>
-    <t>31.4%</t>
-  </si>
-  <si>
-    <t>45.8%</t>
-  </si>
-  <si>
-    <t>51.9%</t>
-  </si>
-  <si>
-    <t>33.0%</t>
-  </si>
-  <si>
-    <t>38.4%</t>
-  </si>
-  <si>
-    <t>32.0%</t>
-  </si>
-  <si>
-    <t>53.0%</t>
+    <t>34.0%</t>
+  </si>
+  <si>
+    <t>30.0%</t>
+  </si>
+  <si>
+    <t>26.4%</t>
   </si>
   <si>
     <t>25.0%</t>
-  </si>
-  <si>
-    <t>43.5%</t>
-  </si>
-  <si>
-    <t>57.1%</t>
-  </si>
-  <si>
-    <t>41.7%</t>
-  </si>
-  <si>
-    <t>35.8%</t>
-  </si>
-  <si>
-    <t>45.0%</t>
-  </si>
-  <si>
-    <t>43.6%</t>
-  </si>
-  <si>
-    <t>Top Income Tax Rate Threshold (a)</t>
-  </si>
-  <si>
-    <t>2.1</t>
-  </si>
-  <si>
-    <t>23.3</t>
-  </si>
-  <si>
-    <t>1.1</t>
-  </si>
-  <si>
-    <t>4.1</t>
-  </si>
-  <si>
-    <t>7.7</t>
-  </si>
-  <si>
-    <t>0.3</t>
-  </si>
-  <si>
-    <t>1.3</t>
-  </si>
-  <si>
-    <t>0.9</t>
-  </si>
-  <si>
-    <t>1.9</t>
-  </si>
-  <si>
-    <t>14.3</t>
-  </si>
-  <si>
-    <t>5.4</t>
-  </si>
-  <si>
-    <t>11.0</t>
-  </si>
-  <si>
-    <t>0.0</t>
-  </si>
-  <si>
-    <t>1.2</t>
-  </si>
-  <si>
-    <t>1.5</t>
-  </si>
-  <si>
-    <t>4.2</t>
-  </si>
-  <si>
-    <t>2.7</t>
-  </si>
-  <si>
-    <t>8.5</t>
-  </si>
-  <si>
-    <t>11.4</t>
-  </si>
-  <si>
-    <t>5.2</t>
-  </si>
-  <si>
-    <t>0.4</t>
-  </si>
-  <si>
-    <t>3.6</t>
-  </si>
-  <si>
-    <t>28.7</t>
-  </si>
-  <si>
-    <t>1.4</t>
-  </si>
-  <si>
-    <t>1.6</t>
-  </si>
-  <si>
-    <t>15.3</t>
-  </si>
-  <si>
-    <t>3.4</t>
-  </si>
-  <si>
-    <t>4.8</t>
-  </si>
-  <si>
-    <t>2.4</t>
-  </si>
-  <si>
-    <t>3.3</t>
-  </si>
-  <si>
-    <t>3.0</t>
-  </si>
-  <si>
-    <t>3.8</t>
-  </si>
-  <si>
-    <t>9.3</t>
-  </si>
-  <si>
-    <t>Ratio of Marginal to Average Tax Wedge</t>
-  </si>
-  <si>
-    <t>1.0</t>
-  </si>
-  <si>
-    <t>1.7</t>
-  </si>
-  <si>
-    <t>Income Tax Complexity</t>
-  </si>
-  <si>
-    <t>Income Tax Complexity (Payments)</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>Income Tax Complexity (Time)</t>
-  </si>
-  <si>
-    <t>50</t>
-  </si>
-  <si>
-    <t>124</t>
-  </si>
-  <si>
-    <t>75</t>
-  </si>
-  <si>
-    <t>65</t>
-  </si>
-  <si>
-    <t>48</t>
-  </si>
-  <si>
-    <t>80</t>
-  </si>
-  <si>
-    <t>134</t>
-  </si>
-  <si>
-    <t>46</t>
-  </si>
-  <si>
-    <t>146</t>
-  </si>
-  <si>
-    <t>60</t>
-  </si>
-  <si>
-    <t>169</t>
-  </si>
-  <si>
-    <t>70</t>
-  </si>
-  <si>
-    <t>64</t>
-  </si>
-  <si>
-    <t>59</t>
-  </si>
-  <si>
-    <t>103</t>
-  </si>
-  <si>
-    <t>90</t>
-  </si>
-  <si>
-    <t>62</t>
-  </si>
-  <si>
-    <t>84</t>
-  </si>
-  <si>
-    <t>71</t>
-  </si>
-  <si>
-    <t>55</t>
-  </si>
-  <si>
-    <t>Capital Gains/Dividends</t>
-  </si>
-  <si>
-    <t>Top Marginal Capital Gains Rate (b)</t>
-  </si>
-  <si>
-    <t>24.5%</t>
-  </si>
-  <si>
-    <t>27.5%</t>
-  </si>
-  <si>
-    <t>0.0%</t>
-  </si>
-  <si>
-    <t>26.8%</t>
-  </si>
-  <si>
-    <t>42.0%</t>
-  </si>
-  <si>
-    <t>34.0%</t>
-  </si>
-  <si>
-    <t>30.0%</t>
-  </si>
-  <si>
-    <t>26.4%</t>
   </si>
   <si>
     <t>22.0%</t>
@@ -757,13 +775,13 @@
         <v>49</v>
       </c>
       <c r="F2" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="G2" t="s">
         <v>49</v>
       </c>
       <c r="H2" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="I2" t="s">
         <v>49</v>
@@ -780,22 +798,22 @@
         <v>91</v>
       </c>
       <c r="D3" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="E3" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="F3" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="G3" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="H3" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="I3" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
     </row>
     <row r="4">
@@ -809,10 +827,10 @@
         <v>92</v>
       </c>
       <c r="D4" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="E4" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="F4" t="s">
         <v>11</v>
@@ -821,10 +839,10 @@
         <v>25</v>
       </c>
       <c r="H4" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="I4" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
     </row>
     <row r="5">
@@ -838,22 +856,22 @@
         <v>93</v>
       </c>
       <c r="D5" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="E5" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="F5" t="s">
         <v>10</v>
       </c>
       <c r="G5" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="H5" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="I5" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
     </row>
     <row r="6">
@@ -867,10 +885,10 @@
         <v>94</v>
       </c>
       <c r="D6" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="E6" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="F6" t="s">
         <v>9</v>
@@ -879,10 +897,10 @@
         <v>47</v>
       </c>
       <c r="H6" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="I6" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
     </row>
     <row r="7">
@@ -896,10 +914,10 @@
         <v>95</v>
       </c>
       <c r="D7" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="E7" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="F7" t="s">
         <v>10</v>
@@ -908,10 +926,10 @@
         <v>43</v>
       </c>
       <c r="H7" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="I7" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
     </row>
     <row r="8">
@@ -925,22 +943,22 @@
         <v>96</v>
       </c>
       <c r="D8" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="E8" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="F8" t="s">
         <v>8</v>
       </c>
       <c r="G8" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="H8" t="s">
         <v>96</v>
       </c>
       <c r="I8" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
     </row>
     <row r="9">
@@ -954,22 +972,22 @@
         <v>97</v>
       </c>
       <c r="D9" t="s">
+        <v>130</v>
+      </c>
+      <c r="E9" t="s">
         <v>127</v>
-      </c>
-      <c r="E9" t="s">
-        <v>124</v>
       </c>
       <c r="F9" t="s">
         <v>9</v>
       </c>
       <c r="G9" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="H9" t="s">
-        <v>97</v>
+        <v>191</v>
       </c>
       <c r="I9" t="s">
-        <v>97</v>
+        <v>191</v>
       </c>
     </row>
     <row r="10">
@@ -983,22 +1001,22 @@
         <v>98</v>
       </c>
       <c r="D10" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="E10" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="F10" t="s">
         <v>8</v>
       </c>
       <c r="G10" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="H10" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="I10" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
     </row>
     <row r="11">
@@ -1012,22 +1030,22 @@
         <v>99</v>
       </c>
       <c r="D11" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="E11" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="F11" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="G11" t="s">
         <v>38</v>
       </c>
       <c r="H11" t="s">
-        <v>99</v>
+        <v>193</v>
       </c>
       <c r="I11" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
     </row>
     <row r="12">
@@ -1041,22 +1059,22 @@
         <v>100</v>
       </c>
       <c r="D12" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="E12" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="F12" t="s">
         <v>10</v>
       </c>
       <c r="G12" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="H12" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="I12" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
     </row>
     <row r="13">
@@ -1070,22 +1088,22 @@
         <v>101</v>
       </c>
       <c r="D13" t="s">
+        <v>134</v>
+      </c>
+      <c r="E13" t="s">
         <v>131</v>
-      </c>
-      <c r="E13" t="s">
-        <v>128</v>
       </c>
       <c r="F13" t="s">
         <v>9</v>
       </c>
       <c r="G13" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="H13" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="I13" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
     </row>
     <row r="14">
@@ -1099,22 +1117,22 @@
         <v>102</v>
       </c>
       <c r="D14" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="E14" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="F14" t="s">
         <v>8</v>
       </c>
       <c r="G14" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="H14" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="I14" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
     </row>
     <row r="15">
@@ -1128,22 +1146,22 @@
         <v>93</v>
       </c>
       <c r="D15" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="E15" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="F15" t="s">
         <v>8</v>
       </c>
       <c r="G15" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="H15" t="s">
-        <v>114</v>
+        <v>197</v>
       </c>
       <c r="I15" t="s">
-        <v>97</v>
+        <v>191</v>
       </c>
     </row>
     <row r="16">
@@ -1154,25 +1172,25 @@
         <v>63</v>
       </c>
       <c r="C16" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="D16" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="E16" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="F16" t="s">
         <v>9</v>
       </c>
       <c r="G16" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="H16" t="s">
-        <v>97</v>
+        <v>191</v>
       </c>
       <c r="I16" t="s">
-        <v>97</v>
+        <v>191</v>
       </c>
     </row>
     <row r="17">
@@ -1183,25 +1201,25 @@
         <v>64</v>
       </c>
       <c r="C17" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D17" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="E17" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="F17" t="s">
         <v>20</v>
       </c>
       <c r="G17" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="H17" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="I17" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
     </row>
     <row r="18">
@@ -1212,13 +1230,13 @@
         <v>65</v>
       </c>
       <c r="C18" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D18" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="E18" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="F18" t="s">
         <v>8</v>
@@ -1227,10 +1245,10 @@
         <v>47</v>
       </c>
       <c r="H18" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="I18" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
     </row>
     <row r="19">
@@ -1241,25 +1259,25 @@
         <v>66</v>
       </c>
       <c r="C19" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D19" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="E19" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="F19" t="s">
         <v>19</v>
       </c>
       <c r="G19" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="H19" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="I19" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
     </row>
     <row r="20">
@@ -1270,25 +1288,25 @@
         <v>67</v>
       </c>
       <c r="C20" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D20" t="s">
+        <v>141</v>
+      </c>
+      <c r="E20" t="s">
         <v>138</v>
-      </c>
-      <c r="E20" t="s">
-        <v>135</v>
       </c>
       <c r="F20" t="s">
         <v>8</v>
       </c>
       <c r="G20" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="H20" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="I20" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
     </row>
     <row r="21">
@@ -1299,25 +1317,25 @@
         <v>68</v>
       </c>
       <c r="C21" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="D21" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="E21" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="F21" t="s">
         <v>21</v>
       </c>
       <c r="G21" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="H21" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="I21" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
     </row>
     <row r="22">
@@ -1328,25 +1346,25 @@
         <v>69</v>
       </c>
       <c r="C22" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="D22" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="E22" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="F22" t="s">
         <v>9</v>
       </c>
       <c r="G22" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="H22" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="I22" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
     </row>
     <row r="23">
@@ -1357,25 +1375,25 @@
         <v>70</v>
       </c>
       <c r="C23" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="D23" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="E23" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="F23" t="s">
         <v>8</v>
       </c>
       <c r="G23" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="H23" t="s">
-        <v>99</v>
+        <v>193</v>
       </c>
       <c r="I23" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
     </row>
     <row r="24">
@@ -1386,13 +1404,13 @@
         <v>71</v>
       </c>
       <c r="C24" t="s">
-        <v>97</v>
+        <v>111</v>
       </c>
       <c r="D24" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="E24" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="F24" t="s">
         <v>8</v>
@@ -1401,10 +1419,10 @@
         <v>41</v>
       </c>
       <c r="H24" t="s">
-        <v>99</v>
+        <v>193</v>
       </c>
       <c r="I24" t="s">
-        <v>97</v>
+        <v>191</v>
       </c>
     </row>
     <row r="25">
@@ -1415,13 +1433,13 @@
         <v>72</v>
       </c>
       <c r="C25" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="D25" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="E25" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="F25" t="s">
         <v>19</v>
@@ -1430,10 +1448,10 @@
         <v>21</v>
       </c>
       <c r="H25" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="I25" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
     </row>
     <row r="26">
@@ -1447,10 +1465,10 @@
         <v>96</v>
       </c>
       <c r="D26" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="E26" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="F26" t="s">
         <v>9</v>
@@ -1459,10 +1477,10 @@
         <v>45</v>
       </c>
       <c r="H26" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="I26" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
     </row>
     <row r="27">
@@ -1473,25 +1491,25 @@
         <v>74</v>
       </c>
       <c r="C27" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="D27" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="E27" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="F27" t="s">
         <v>8</v>
       </c>
       <c r="G27" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="H27" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="I27" t="s">
-        <v>114</v>
+        <v>197</v>
       </c>
     </row>
     <row r="28">
@@ -1502,25 +1520,25 @@
         <v>75</v>
       </c>
       <c r="C28" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="D28" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="E28" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="F28" t="s">
         <v>9</v>
       </c>
       <c r="G28" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="H28" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="I28" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
     </row>
     <row r="29">
@@ -1531,13 +1549,13 @@
         <v>76</v>
       </c>
       <c r="C29" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="D29" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="E29" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="F29" t="s">
         <v>8</v>
@@ -1546,10 +1564,10 @@
         <v>22</v>
       </c>
       <c r="H29" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="I29" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
     </row>
     <row r="30">
@@ -1560,25 +1578,25 @@
         <v>77</v>
       </c>
       <c r="C30" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="D30" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="E30" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="F30" t="s">
         <v>9</v>
       </c>
       <c r="G30" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="H30" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="I30" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
     </row>
     <row r="31">
@@ -1589,25 +1607,25 @@
         <v>78</v>
       </c>
       <c r="C31" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="D31" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="E31" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="F31" t="s">
         <v>8</v>
       </c>
       <c r="G31" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="H31" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="I31" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
     </row>
     <row r="32">
@@ -1618,25 +1636,25 @@
         <v>79</v>
       </c>
       <c r="C32" t="s">
-        <v>114</v>
+        <v>96</v>
       </c>
       <c r="D32" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="E32" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="F32" t="s">
         <v>8</v>
       </c>
       <c r="G32" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="H32" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="I32" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
     </row>
     <row r="33">
@@ -1647,25 +1665,25 @@
         <v>80</v>
       </c>
       <c r="C33" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="D33" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="E33" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="F33" t="s">
         <v>8</v>
       </c>
       <c r="G33" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="H33" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="I33" t="s">
-        <v>114</v>
+        <v>197</v>
       </c>
     </row>
     <row r="34">
@@ -1676,25 +1694,25 @@
         <v>81</v>
       </c>
       <c r="C34" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="D34" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="E34" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="F34" t="s">
         <v>8</v>
       </c>
       <c r="G34" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="H34" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="I34" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
     </row>
     <row r="35">
@@ -1705,13 +1723,13 @@
         <v>82</v>
       </c>
       <c r="C35" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="D35" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="E35" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="F35" t="s">
         <v>8</v>
@@ -1720,10 +1738,10 @@
         <v>43</v>
       </c>
       <c r="H35" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="I35" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
     </row>
     <row r="36">
@@ -1734,13 +1752,13 @@
         <v>83</v>
       </c>
       <c r="C36" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="D36" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="E36" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="F36" t="s">
         <v>14</v>
@@ -1749,10 +1767,10 @@
         <v>47</v>
       </c>
       <c r="H36" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="I36" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
     </row>
     <row r="37">
@@ -1763,25 +1781,25 @@
         <v>84</v>
       </c>
       <c r="C37" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="D37" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="E37" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="F37" t="s">
         <v>8</v>
       </c>
       <c r="G37" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="H37" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="I37" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
     </row>
     <row r="38">
@@ -1792,25 +1810,25 @@
         <v>85</v>
       </c>
       <c r="C38" t="s">
-        <v>119</v>
+        <v>92</v>
       </c>
       <c r="D38" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="E38" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="F38" t="s">
         <v>8</v>
       </c>
       <c r="G38" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="H38" t="s">
-        <v>99</v>
+        <v>193</v>
       </c>
       <c r="I38" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
     </row>
     <row r="39">
@@ -1821,25 +1839,25 @@
         <v>86</v>
       </c>
       <c r="C39" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="D39" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="E39" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="F39" t="s">
         <v>11</v>
       </c>
       <c r="G39" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="H39" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="I39" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
     </row>
     <row r="40">

--- a/final-outputs/Table B Individual.xlsx
+++ b/final-outputs/Table B Individual.xlsx
@@ -1,13 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="false"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21901"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\international-tax-competitiveness-index\final-outputs\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1B6FC80-DA31-4874-A8C4-F73299D2C31C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" r:id="rId3" sheetId="1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -287,9 +295,6 @@
     <t>Ordinary Income Taxes and Payroll Taxes</t>
   </si>
   <si>
-    <t>Top Marginal Income Rate</t>
-  </si>
-  <si>
     <t>47.0%</t>
   </si>
   <si>
@@ -681,16 +686,18 @@
   </si>
   <si>
     <t>29.3%</t>
+  </si>
+  <si>
+    <t>Top Marginal Income Tax Rate</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -702,7 +709,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="darkGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
@@ -720,19 +727,328 @@
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I42"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="true"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1">
-      <c r="A1"/>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -758,7 +1074,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -775,19 +1091,19 @@
         <v>49</v>
       </c>
       <c r="F2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G2" t="s">
         <v>49</v>
       </c>
       <c r="H2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I2" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -795,28 +1111,28 @@
         <v>50</v>
       </c>
       <c r="C3" t="s">
-        <v>91</v>
+        <v>222</v>
       </c>
       <c r="D3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="I3" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="4">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -824,13 +1140,13 @@
         <v>51</v>
       </c>
       <c r="C4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F4" t="s">
         <v>11</v>
@@ -839,13 +1155,13 @@
         <v>25</v>
       </c>
       <c r="H4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="I4" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="5">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -853,28 +1169,28 @@
         <v>52</v>
       </c>
       <c r="C5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D5" t="s">
+        <v>125</v>
+      </c>
+      <c r="E5" t="s">
         <v>126</v>
-      </c>
-      <c r="E5" t="s">
-        <v>127</v>
       </c>
       <c r="F5" t="s">
         <v>10</v>
       </c>
       <c r="G5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H5" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="I5" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="6">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -882,13 +1198,13 @@
         <v>53</v>
       </c>
       <c r="C6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F6" t="s">
         <v>9</v>
@@ -897,13 +1213,13 @@
         <v>47</v>
       </c>
       <c r="H6" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="I6" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="7">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -911,13 +1227,13 @@
         <v>54</v>
       </c>
       <c r="C7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F7" t="s">
         <v>10</v>
@@ -926,13 +1242,13 @@
         <v>43</v>
       </c>
       <c r="H7" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I7" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="8">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -940,28 +1256,28 @@
         <v>55</v>
       </c>
       <c r="C8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D8" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F8" t="s">
         <v>8</v>
       </c>
       <c r="G8" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I8" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="9">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>15</v>
       </c>
@@ -969,28 +1285,28 @@
         <v>56</v>
       </c>
       <c r="C9" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F9" t="s">
         <v>9</v>
       </c>
       <c r="G9" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H9" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="I9" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="10">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>16</v>
       </c>
@@ -998,28 +1314,28 @@
         <v>57</v>
       </c>
       <c r="C10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D10" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E10" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F10" t="s">
         <v>8</v>
       </c>
       <c r="G10" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H10" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="I10" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="11">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>17</v>
       </c>
@@ -1027,28 +1343,28 @@
         <v>58</v>
       </c>
       <c r="C11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D11" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E11" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F11" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G11" t="s">
         <v>38</v>
       </c>
       <c r="H11" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="I11" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="12">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>18</v>
       </c>
@@ -1056,28 +1372,28 @@
         <v>59</v>
       </c>
       <c r="C12" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D12" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E12" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F12" t="s">
         <v>10</v>
       </c>
       <c r="G12" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H12" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I12" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="13">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>19</v>
       </c>
@@ -1085,28 +1401,28 @@
         <v>60</v>
       </c>
       <c r="C13" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D13" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E13" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F13" t="s">
         <v>9</v>
       </c>
       <c r="G13" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H13" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="I13" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="14">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -1114,28 +1430,28 @@
         <v>61</v>
       </c>
       <c r="C14" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D14" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E14" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F14" t="s">
         <v>8</v>
       </c>
       <c r="G14" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H14" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I14" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="15">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>21</v>
       </c>
@@ -1143,28 +1459,28 @@
         <v>62</v>
       </c>
       <c r="C15" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D15" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E15" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F15" t="s">
         <v>8</v>
       </c>
       <c r="G15" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H15" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I15" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="16">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>22</v>
       </c>
@@ -1172,28 +1488,28 @@
         <v>63</v>
       </c>
       <c r="C16" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D16" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E16" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F16" t="s">
         <v>9</v>
       </c>
       <c r="G16" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H16" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="I16" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="17">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>23</v>
       </c>
@@ -1201,28 +1517,28 @@
         <v>64</v>
       </c>
       <c r="C17" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D17" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E17" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F17" t="s">
         <v>20</v>
       </c>
       <c r="G17" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H17" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="I17" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="18">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>24</v>
       </c>
@@ -1230,13 +1546,13 @@
         <v>65</v>
       </c>
       <c r="C18" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D18" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E18" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F18" t="s">
         <v>8</v>
@@ -1245,13 +1561,13 @@
         <v>47</v>
       </c>
       <c r="H18" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I18" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="19">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>25</v>
       </c>
@@ -1259,28 +1575,28 @@
         <v>66</v>
       </c>
       <c r="C19" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D19" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E19" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F19" t="s">
         <v>19</v>
       </c>
       <c r="G19" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H19" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="I19" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="20">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>26</v>
       </c>
@@ -1288,28 +1604,28 @@
         <v>67</v>
       </c>
       <c r="C20" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D20" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E20" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F20" t="s">
         <v>8</v>
       </c>
       <c r="G20" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H20" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="I20" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="21">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>27</v>
       </c>
@@ -1317,28 +1633,28 @@
         <v>68</v>
       </c>
       <c r="C21" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D21" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F21" t="s">
         <v>21</v>
       </c>
       <c r="G21" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H21" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="I21" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="22">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>28</v>
       </c>
@@ -1346,28 +1662,28 @@
         <v>69</v>
       </c>
       <c r="C22" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D22" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E22" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F22" t="s">
         <v>9</v>
       </c>
       <c r="G22" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H22" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="I22" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="23">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
         <v>29</v>
       </c>
@@ -1375,28 +1691,28 @@
         <v>70</v>
       </c>
       <c r="C23" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D23" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E23" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F23" t="s">
         <v>8</v>
       </c>
       <c r="G23" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H23" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="I23" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="24">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
         <v>30</v>
       </c>
@@ -1404,13 +1720,13 @@
         <v>71</v>
       </c>
       <c r="C24" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D24" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E24" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F24" t="s">
         <v>8</v>
@@ -1419,13 +1735,13 @@
         <v>41</v>
       </c>
       <c r="H24" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="I24" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="25">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
         <v>31</v>
       </c>
@@ -1433,13 +1749,13 @@
         <v>72</v>
       </c>
       <c r="C25" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D25" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E25" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F25" t="s">
         <v>19</v>
@@ -1448,13 +1764,13 @@
         <v>21</v>
       </c>
       <c r="H25" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="I25" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="26">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
         <v>32</v>
       </c>
@@ -1462,13 +1778,13 @@
         <v>73</v>
       </c>
       <c r="C26" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D26" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E26" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F26" t="s">
         <v>9</v>
@@ -1477,13 +1793,13 @@
         <v>45</v>
       </c>
       <c r="H26" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="I26" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="27">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
         <v>33</v>
       </c>
@@ -1491,28 +1807,28 @@
         <v>74</v>
       </c>
       <c r="C27" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D27" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E27" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F27" t="s">
         <v>8</v>
       </c>
       <c r="G27" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H27" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="I27" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="28">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
         <v>34</v>
       </c>
@@ -1520,28 +1836,28 @@
         <v>75</v>
       </c>
       <c r="C28" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D28" t="s">
+        <v>137</v>
+      </c>
+      <c r="E28" t="s">
         <v>138</v>
-      </c>
-      <c r="E28" t="s">
-        <v>139</v>
       </c>
       <c r="F28" t="s">
         <v>9</v>
       </c>
       <c r="G28" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H28" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="I28" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="29">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
         <v>35</v>
       </c>
@@ -1549,13 +1865,13 @@
         <v>76</v>
       </c>
       <c r="C29" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D29" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E29" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F29" t="s">
         <v>8</v>
@@ -1564,13 +1880,13 @@
         <v>22</v>
       </c>
       <c r="H29" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="I29" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="30">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
         <v>36</v>
       </c>
@@ -1578,28 +1894,28 @@
         <v>77</v>
       </c>
       <c r="C30" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D30" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E30" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F30" t="s">
         <v>9</v>
       </c>
       <c r="G30" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="H30" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="I30" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="31">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
         <v>37</v>
       </c>
@@ -1607,28 +1923,28 @@
         <v>78</v>
       </c>
       <c r="C31" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D31" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E31" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F31" t="s">
         <v>8</v>
       </c>
       <c r="G31" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H31" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="I31" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="32">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
         <v>38</v>
       </c>
@@ -1636,28 +1952,28 @@
         <v>79</v>
       </c>
       <c r="C32" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D32" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E32" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F32" t="s">
         <v>8</v>
       </c>
       <c r="G32" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H32" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="I32" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="33">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
         <v>39</v>
       </c>
@@ -1665,28 +1981,28 @@
         <v>80</v>
       </c>
       <c r="C33" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D33" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E33" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F33" t="s">
         <v>8</v>
       </c>
       <c r="G33" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H33" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="I33" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="34">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
         <v>40</v>
       </c>
@@ -1694,28 +2010,28 @@
         <v>81</v>
       </c>
       <c r="C34" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D34" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E34" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F34" t="s">
         <v>8</v>
       </c>
       <c r="G34" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H34" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I34" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="35">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
         <v>41</v>
       </c>
@@ -1723,13 +2039,13 @@
         <v>82</v>
       </c>
       <c r="C35" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D35" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E35" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F35" t="s">
         <v>8</v>
@@ -1738,13 +2054,13 @@
         <v>43</v>
       </c>
       <c r="H35" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="I35" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="36">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
         <v>42</v>
       </c>
@@ -1752,13 +2068,13 @@
         <v>83</v>
       </c>
       <c r="C36" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D36" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E36" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F36" t="s">
         <v>14</v>
@@ -1767,13 +2083,13 @@
         <v>47</v>
       </c>
       <c r="H36" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="I36" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="37">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
         <v>43</v>
       </c>
@@ -1781,28 +2097,28 @@
         <v>84</v>
       </c>
       <c r="C37" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D37" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E37" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F37" t="s">
         <v>8</v>
       </c>
       <c r="G37" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H37" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="I37" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="38">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
         <v>44</v>
       </c>
@@ -1810,28 +2126,28 @@
         <v>85</v>
       </c>
       <c r="C38" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D38" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E38" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F38" t="s">
         <v>8</v>
       </c>
       <c r="G38" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H38" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="I38" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="39">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
         <v>45</v>
       </c>
@@ -1839,28 +2155,28 @@
         <v>86</v>
       </c>
       <c r="C39" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D39" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E39" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F39" t="s">
         <v>11</v>
       </c>
       <c r="G39" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H39" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="I39" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="40">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
         <v>46</v>
       </c>
@@ -1889,7 +2205,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A41" t="s">
         <v>47</v>
       </c>
@@ -1918,7 +2234,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A42" t="s">
         <v>48</v>
       </c>
@@ -1948,6 +2264,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/final-outputs/Table B Individual.xlsx
+++ b/final-outputs/Table B Individual.xlsx
@@ -1,21 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21901"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\international-tax-competitiveness-index\final-outputs\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1B6FC80-DA31-4874-A8C4-F73299D2C31C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <workbookPr date1904="false"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" r:id="rId3" sheetId="1"/>
   </sheets>
-  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -295,6 +287,9 @@
     <t>Ordinary Income Taxes and Payroll Taxes</t>
   </si>
   <si>
+    <t>Top Marginal Income Tax Rate</t>
+  </si>
+  <si>
     <t>47.0%</t>
   </si>
   <si>
@@ -686,18 +681,16 @@
   </si>
   <si>
     <t>29.3%</t>
-  </si>
-  <si>
-    <t>Top Marginal Income Tax Rate</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -709,7 +702,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125"/>
+      <patternFill patternType="darkGray"/>
     </fill>
   </fills>
   <borders count="1">
@@ -727,328 +720,19 @@
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-  </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
-  <a:themeElements>
-    <a:clrScheme name="Office">
-      <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="44546A"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="4472C4"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="ED7D31"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="FFC000"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="70AD47"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="0563C1"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="954F72"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Office">
-      <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme name="Office">
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
-</a:theme>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I42"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
-    </sheetView>
+    <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="1">
+      <c r="A1"/>
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -1074,7 +758,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="2">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -1091,19 +775,19 @@
         <v>49</v>
       </c>
       <c r="F2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="G2" t="s">
         <v>49</v>
       </c>
       <c r="H2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="I2" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="3">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -1111,28 +795,28 @@
         <v>50</v>
       </c>
       <c r="C3" t="s">
-        <v>222</v>
+        <v>91</v>
       </c>
       <c r="D3" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E3" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F3" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="G3" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="H3" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="I3" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="4">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -1140,13 +824,13 @@
         <v>51</v>
       </c>
       <c r="C4" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D4" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E4" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="F4" t="s">
         <v>11</v>
@@ -1155,13 +839,13 @@
         <v>25</v>
       </c>
       <c r="H4" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="I4" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -1169,28 +853,28 @@
         <v>52</v>
       </c>
       <c r="C5" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D5" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E5" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F5" t="s">
         <v>10</v>
       </c>
       <c r="G5" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="H5" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="I5" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -1198,13 +882,13 @@
         <v>53</v>
       </c>
       <c r="C6" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D6" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E6" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F6" t="s">
         <v>9</v>
@@ -1213,13 +897,13 @@
         <v>47</v>
       </c>
       <c r="H6" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="I6" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -1227,13 +911,13 @@
         <v>54</v>
       </c>
       <c r="C7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="F7" t="s">
         <v>10</v>
@@ -1242,13 +926,13 @@
         <v>43</v>
       </c>
       <c r="H7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="I7" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -1256,28 +940,28 @@
         <v>55</v>
       </c>
       <c r="C8" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D8" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E8" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F8" t="s">
         <v>8</v>
       </c>
       <c r="G8" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="H8" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I8" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.45">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" t="s">
         <v>15</v>
       </c>
@@ -1285,28 +969,28 @@
         <v>56</v>
       </c>
       <c r="C9" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D9" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E9" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F9" t="s">
         <v>9</v>
       </c>
       <c r="G9" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="H9" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="I9" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.45">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" t="s">
         <v>16</v>
       </c>
@@ -1314,28 +998,28 @@
         <v>57</v>
       </c>
       <c r="C10" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D10" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E10" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F10" t="s">
         <v>8</v>
       </c>
       <c r="G10" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="H10" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="I10" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.45">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" t="s">
         <v>17</v>
       </c>
@@ -1343,28 +1027,28 @@
         <v>58</v>
       </c>
       <c r="C11" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D11" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E11" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="F11" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="G11" t="s">
         <v>38</v>
       </c>
       <c r="H11" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="I11" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.45">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" t="s">
         <v>18</v>
       </c>
@@ -1372,28 +1056,28 @@
         <v>59</v>
       </c>
       <c r="C12" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D12" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E12" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F12" t="s">
         <v>10</v>
       </c>
       <c r="G12" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="H12" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="I12" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.45">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" t="s">
         <v>19</v>
       </c>
@@ -1401,28 +1085,28 @@
         <v>60</v>
       </c>
       <c r="C13" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D13" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E13" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F13" t="s">
         <v>9</v>
       </c>
       <c r="G13" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="H13" t="s">
+        <v>195</v>
+      </c>
+      <c r="I13" t="s">
         <v>194</v>
       </c>
-      <c r="I13" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.45">
+    </row>
+    <row r="14">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -1430,28 +1114,28 @@
         <v>61</v>
       </c>
       <c r="C14" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D14" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E14" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F14" t="s">
         <v>8</v>
       </c>
       <c r="G14" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="H14" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="I14" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.45">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" t="s">
         <v>21</v>
       </c>
@@ -1459,28 +1143,28 @@
         <v>62</v>
       </c>
       <c r="C15" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D15" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E15" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="F15" t="s">
         <v>8</v>
       </c>
       <c r="G15" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="H15" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="I15" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.45">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" t="s">
         <v>22</v>
       </c>
@@ -1488,28 +1172,28 @@
         <v>63</v>
       </c>
       <c r="C16" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D16" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E16" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="F16" t="s">
         <v>9</v>
       </c>
       <c r="G16" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="H16" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="I16" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.45">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" t="s">
         <v>23</v>
       </c>
@@ -1517,28 +1201,28 @@
         <v>64</v>
       </c>
       <c r="C17" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D17" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E17" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F17" t="s">
         <v>20</v>
       </c>
       <c r="G17" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="H17" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="I17" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.45">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" t="s">
         <v>24</v>
       </c>
@@ -1546,13 +1230,13 @@
         <v>65</v>
       </c>
       <c r="C18" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D18" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E18" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F18" t="s">
         <v>8</v>
@@ -1561,13 +1245,13 @@
         <v>47</v>
       </c>
       <c r="H18" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="I18" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.45">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" t="s">
         <v>25</v>
       </c>
@@ -1575,28 +1259,28 @@
         <v>66</v>
       </c>
       <c r="C19" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D19" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E19" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="F19" t="s">
         <v>19</v>
       </c>
       <c r="G19" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="H19" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="I19" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.45">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" t="s">
         <v>26</v>
       </c>
@@ -1604,28 +1288,28 @@
         <v>67</v>
       </c>
       <c r="C20" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D20" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E20" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="F20" t="s">
         <v>8</v>
       </c>
       <c r="G20" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="H20" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="I20" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.45">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" t="s">
         <v>27</v>
       </c>
@@ -1633,28 +1317,28 @@
         <v>68</v>
       </c>
       <c r="C21" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D21" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E21" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F21" t="s">
         <v>21</v>
       </c>
       <c r="G21" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="H21" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="I21" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.45">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" t="s">
         <v>28</v>
       </c>
@@ -1662,28 +1346,28 @@
         <v>69</v>
       </c>
       <c r="C22" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D22" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E22" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="F22" t="s">
         <v>9</v>
       </c>
       <c r="G22" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="H22" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="I22" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.45">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" t="s">
         <v>29</v>
       </c>
@@ -1691,28 +1375,28 @@
         <v>70</v>
       </c>
       <c r="C23" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D23" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E23" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F23" t="s">
         <v>8</v>
       </c>
       <c r="G23" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="H23" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="I23" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.45">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" t="s">
         <v>30</v>
       </c>
@@ -1720,13 +1404,13 @@
         <v>71</v>
       </c>
       <c r="C24" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D24" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E24" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F24" t="s">
         <v>8</v>
@@ -1735,13 +1419,13 @@
         <v>41</v>
       </c>
       <c r="H24" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="I24" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.45">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" t="s">
         <v>31</v>
       </c>
@@ -1749,13 +1433,13 @@
         <v>72</v>
       </c>
       <c r="C25" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D25" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E25" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="F25" t="s">
         <v>19</v>
@@ -1764,13 +1448,13 @@
         <v>21</v>
       </c>
       <c r="H25" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="I25" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.45">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" t="s">
         <v>32</v>
       </c>
@@ -1778,13 +1462,13 @@
         <v>73</v>
       </c>
       <c r="C26" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D26" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E26" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="F26" t="s">
         <v>9</v>
@@ -1793,13 +1477,13 @@
         <v>45</v>
       </c>
       <c r="H26" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="I26" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.45">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" t="s">
         <v>33</v>
       </c>
@@ -1807,28 +1491,28 @@
         <v>74</v>
       </c>
       <c r="C27" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D27" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E27" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F27" t="s">
         <v>8</v>
       </c>
       <c r="G27" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="H27" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="I27" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.45">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" t="s">
         <v>34</v>
       </c>
@@ -1836,28 +1520,28 @@
         <v>75</v>
       </c>
       <c r="C28" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D28" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E28" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F28" t="s">
         <v>9</v>
       </c>
       <c r="G28" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="H28" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="I28" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.45">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" t="s">
         <v>35</v>
       </c>
@@ -1865,13 +1549,13 @@
         <v>76</v>
       </c>
       <c r="C29" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D29" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E29" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="F29" t="s">
         <v>8</v>
@@ -1880,13 +1564,13 @@
         <v>22</v>
       </c>
       <c r="H29" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="I29" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.45">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" t="s">
         <v>36</v>
       </c>
@@ -1894,28 +1578,28 @@
         <v>77</v>
       </c>
       <c r="C30" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D30" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E30" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="F30" t="s">
         <v>9</v>
       </c>
       <c r="G30" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="H30" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="I30" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.45">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" t="s">
         <v>37</v>
       </c>
@@ -1923,28 +1607,28 @@
         <v>78</v>
       </c>
       <c r="C31" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D31" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E31" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F31" t="s">
         <v>8</v>
       </c>
       <c r="G31" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="H31" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="I31" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.45">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" t="s">
         <v>38</v>
       </c>
@@ -1952,28 +1636,28 @@
         <v>79</v>
       </c>
       <c r="C32" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D32" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E32" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F32" t="s">
         <v>8</v>
       </c>
       <c r="G32" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="H32" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="I32" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.45">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" t="s">
         <v>39</v>
       </c>
@@ -1981,28 +1665,28 @@
         <v>80</v>
       </c>
       <c r="C33" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D33" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E33" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F33" t="s">
         <v>8</v>
       </c>
       <c r="G33" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="H33" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="I33" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.45">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" t="s">
         <v>40</v>
       </c>
@@ -2010,28 +1694,28 @@
         <v>81</v>
       </c>
       <c r="C34" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D34" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E34" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="F34" t="s">
         <v>8</v>
       </c>
       <c r="G34" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="H34" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="I34" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.45">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" t="s">
         <v>41</v>
       </c>
@@ -2039,13 +1723,13 @@
         <v>82</v>
       </c>
       <c r="C35" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D35" t="s">
+        <v>139</v>
+      </c>
+      <c r="E35" t="s">
         <v>138</v>
-      </c>
-      <c r="E35" t="s">
-        <v>137</v>
       </c>
       <c r="F35" t="s">
         <v>8</v>
@@ -2054,13 +1738,13 @@
         <v>43</v>
       </c>
       <c r="H35" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="I35" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.45">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" t="s">
         <v>42</v>
       </c>
@@ -2068,13 +1752,13 @@
         <v>83</v>
       </c>
       <c r="C36" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D36" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E36" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="F36" t="s">
         <v>14</v>
@@ -2083,13 +1767,13 @@
         <v>47</v>
       </c>
       <c r="H36" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="I36" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.45">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" t="s">
         <v>43</v>
       </c>
@@ -2097,28 +1781,28 @@
         <v>84</v>
       </c>
       <c r="C37" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D37" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E37" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="F37" t="s">
         <v>8</v>
       </c>
       <c r="G37" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="H37" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="I37" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.45">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" t="s">
         <v>44</v>
       </c>
@@ -2126,28 +1810,28 @@
         <v>85</v>
       </c>
       <c r="C38" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D38" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E38" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="F38" t="s">
         <v>8</v>
       </c>
       <c r="G38" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="H38" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="I38" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.45">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" t="s">
         <v>45</v>
       </c>
@@ -2155,28 +1839,28 @@
         <v>86</v>
       </c>
       <c r="C39" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D39" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E39" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="F39" t="s">
         <v>11</v>
       </c>
       <c r="G39" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="H39" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="I39" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.45">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" t="s">
         <v>46</v>
       </c>
@@ -2205,7 +1889,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="41">
       <c r="A41" t="s">
         <v>47</v>
       </c>
@@ -2234,7 +1918,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="42">
       <c r="A42" t="s">
         <v>48</v>
       </c>
@@ -2264,6 +1948,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>